--- a/data/Calibration/Processed/GDP by Industry.xlsx
+++ b/data/Calibration/Processed/GDP by Industry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricks\Dropbox\PC\Desktop\University of Wisconsin-Madison\Research\RA with Alder\clusters\data\Calibration\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD0D76-E2E8-4798-B898-72E94C059BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC2BEB-9A3F-4DE3-8D83-7D32908481C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -1089,29 +1089,18 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,22 +1126,33 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
@@ -1441,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D276AF1-A6D0-460D-A971-1369F8AD0229}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +1453,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="50" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="46" t="s">
         <v>77</v>
       </c>
       <c r="D3" t="s">
@@ -1475,12 +1475,12 @@
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1514,28 +1514,28 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="65"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="65"/>
-      <c r="C14" s="66" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="65"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1563,818 +1563,818 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="54" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="52">
         <v>21372.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="52">
         <v>18750.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="52">
         <v>162.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="52">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="52">
         <v>39.6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="52">
         <v>295.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="52">
         <v>182.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="52">
         <v>59.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="52">
         <v>53.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="52">
         <v>333.3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="52">
         <v>903.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="52">
         <v>2370.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="52">
         <v>1327.9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="52">
         <v>39.9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="52">
         <v>65.099999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="52">
         <v>66.2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="52">
         <v>162.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="52">
         <v>167.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="52">
         <v>307.7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="52">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="52">
         <v>158.69999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="52">
         <v>165.7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="52">
         <v>32.299999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="70">
+      <c r="B25" s="52">
         <v>96.9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="52">
         <v>1043</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="52">
         <v>277.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="52">
         <v>16.8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="52">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="52">
         <v>59.7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="70">
+      <c r="B31" s="52">
         <v>41.3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="52">
         <v>163.6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="52">
         <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="52">
         <v>83.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="52">
         <v>1275</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="70">
+      <c r="B36" s="52">
         <v>1166.7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="70">
+      <c r="B37" s="52">
         <v>225.8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="70">
+      <c r="B38" s="52">
         <v>158.30000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="70">
+      <c r="B39" s="52">
         <v>153.6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="70">
+      <c r="B40" s="52">
         <v>628.9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="52">
         <v>685.7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="70">
+      <c r="B42" s="52">
         <v>146.30000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="52">
         <v>42.4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="52">
         <v>14.4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="70">
+      <c r="B45" s="52">
         <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="70">
+      <c r="B46" s="52">
         <v>53.9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="70">
+      <c r="B47" s="52">
         <v>43.3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="52">
         <v>136.30000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="52">
         <v>76.099999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="70">
+      <c r="B50" s="52">
         <v>1134.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="70">
+      <c r="B51" s="52">
         <v>293.10000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="52">
         <v>86.9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="70">
+      <c r="B53" s="52">
         <v>469.2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="70">
+      <c r="B54" s="52">
         <v>285.3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="70">
+      <c r="B55" s="52">
         <v>4451.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="70">
+      <c r="B56" s="52">
         <v>1682.9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="70">
+      <c r="B57" s="52">
         <v>723.3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="70">
+      <c r="B58" s="52">
         <v>329.8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="70">
+      <c r="B59" s="52">
         <v>604.5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="70">
+      <c r="B60" s="52">
         <v>25.3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="70">
+      <c r="B61" s="52">
         <v>2768.7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="70">
+      <c r="B62" s="52">
         <v>2500.4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="70">
+      <c r="B63" s="52">
         <v>1980.1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="70">
+      <c r="B64" s="52">
         <v>520.29999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="70">
+      <c r="B65" s="52">
         <v>268.2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="70">
+      <c r="B66" s="52">
         <v>2731.3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="70">
+      <c r="B67" s="52">
         <v>1645</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="70">
+      <c r="B68" s="52">
         <v>282.8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="70">
+      <c r="B69" s="52">
         <v>370.5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="70">
+      <c r="B70" s="52">
         <v>991.7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="70">
+      <c r="B71" s="52">
         <v>411.8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="70">
+      <c r="B72" s="52">
         <v>674.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="70">
+      <c r="B73" s="52">
         <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="70">
+      <c r="B74" s="52">
         <v>59.5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="70">
+      <c r="B75" s="52">
         <v>1871.4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="70">
+      <c r="B76" s="52">
         <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="70">
+      <c r="B77" s="52">
         <v>1596.4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="70">
+      <c r="B78" s="52">
         <v>780.8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="70">
+      <c r="B79" s="52">
         <v>513.6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="70">
+      <c r="B80" s="52">
         <v>157.19999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="70">
+      <c r="B81" s="52">
         <v>144.80000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="71" t="s">
+      <c r="A82" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="70">
+      <c r="B82" s="52">
         <v>914.2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="70">
+      <c r="B83" s="52">
         <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="70" t="s">
+      <c r="A84" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="70">
+      <c r="B84" s="52">
         <v>145.4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="70">
+      <c r="B85" s="52">
         <v>95.6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="70">
+      <c r="B86" s="52">
         <v>673.2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="70">
+      <c r="B87" s="52">
         <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B88" s="70">
+      <c r="B88" s="52">
         <v>488.2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="71" t="s">
+      <c r="A89" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="70">
+      <c r="B89" s="52">
         <v>454.4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="70">
+      <c r="B90" s="52">
         <v>2621.8</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="71" t="s">
+      <c r="A91" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B91" s="70">
+      <c r="B91" s="52">
         <v>811.5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="70">
+      <c r="B92" s="52">
         <v>749.4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="70" t="s">
+      <c r="A93" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="70">
+      <c r="B93" s="52">
         <v>430.9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="70" t="s">
+      <c r="A94" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B94" s="70">
+      <c r="B94" s="52">
         <v>318.5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B95" s="70">
+      <c r="B95" s="52">
         <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="71" t="s">
+      <c r="A96" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B96" s="70">
+      <c r="B96" s="52">
         <v>1810.3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="70" t="s">
+      <c r="A97" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="70">
+      <c r="B97" s="52">
         <v>1656.1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="70">
+      <c r="B98" s="52">
         <v>154.30000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="70" t="s">
+      <c r="B99" s="52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" s="70" t="s">
+      <c r="A100" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="70">
+      <c r="B100" s="52">
         <v>3732.8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="70">
+      <c r="B101" s="52">
         <v>15018</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="70" t="s">
+      <c r="A102" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="70">
+      <c r="B102" s="52">
         <v>1515.3</v>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2416,10 +2416,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="48">
         <v>21372.6</v>
       </c>
       <c r="D2" t="s">
@@ -2446,10 +2446,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="48">
         <v>162.6</v>
       </c>
       <c r="D4" t="s">
@@ -2491,10 +2491,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="48">
         <v>295.7</v>
       </c>
     </row>
@@ -2523,26 +2523,26 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="48">
         <v>333.3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="48">
         <v>903.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="48">
         <v>2370.9</v>
       </c>
     </row>
@@ -2715,18 +2715,18 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="65">
+      <c r="B35" s="48">
         <v>1275</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="48">
         <v>1166.7</v>
       </c>
     </row>
@@ -2763,10 +2763,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="65">
+      <c r="B41" s="48">
         <v>685.7</v>
       </c>
     </row>
@@ -2835,10 +2835,10 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="65">
+      <c r="B50" s="48">
         <v>1134.5</v>
       </c>
     </row>
@@ -2875,10 +2875,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="65">
+      <c r="B55" s="48">
         <v>4451.5</v>
       </c>
     </row>
@@ -2963,10 +2963,10 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="65">
+      <c r="B66" s="48">
         <v>2731.3</v>
       </c>
     </row>
@@ -3035,10 +3035,10 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="65">
+      <c r="B75" s="48">
         <v>1871.4</v>
       </c>
     </row>
@@ -3091,10 +3091,10 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="65">
+      <c r="B82" s="48">
         <v>914.2</v>
       </c>
     </row>
@@ -3147,18 +3147,18 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="65" t="s">
+      <c r="A89" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="65">
+      <c r="B89" s="48">
         <v>454.4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="65" t="s">
+      <c r="A90" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="65">
+      <c r="B90" s="48">
         <v>2621.8</v>
       </c>
     </row>
@@ -3419,25 +3419,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
       <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
@@ -3446,164 +3446,164 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="53">
+      <c r="B3" s="60"/>
+      <c r="C3" s="63">
         <v>2020</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="63">
         <v>2020</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="53">
+      <c r="B4" s="60"/>
+      <c r="C4" s="63">
         <v>2020</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="69">
         <v>2020</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="70">
         <v>2020</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="70">
         <v>2020</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="69">
         <v>2021</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="71">
         <v>2021</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="63">
         <v>2020</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="69">
         <v>2020</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="70">
         <v>2020</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="70">
         <v>2020</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="69">
         <v>2021</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="71">
         <v>2021</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="63">
         <v>2020</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="69">
         <v>2021</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="71">
         <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="53">
+      <c r="B5" s="61"/>
+      <c r="C5" s="63">
         <v>2020</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3621,7 +3621,7 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="63">
         <v>2020</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -3639,7 +3639,7 @@
       <c r="N5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="63">
         <v>2020</v>
       </c>
       <c r="P5" s="5" t="s">
@@ -5598,98 +5598,98 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
       <c r="R39" s="34"/>
       <c r="S39" s="34"/>
       <c r="T39" s="34"/>
       <c r="U39" s="35"/>
     </row>
     <row r="40" spans="1:24" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
     </row>
     <row r="41" spans="1:24" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
     </row>
     <row r="42" spans="1:24" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
@@ -5723,6 +5723,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A39:Q39"/>
+    <mergeCell ref="A40:Q40"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="A42:Q42"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -5733,16 +5743,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A40:Q40"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="A42:Q42"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6184,7 +6184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E0E4CE-68F1-4A25-9541-D03B5DB77988}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
